--- a/data.xlsx
+++ b/data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\GunBattleRoyale\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\GunBattleRoyale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2429F932-B661-483D-9922-9C320DDEC74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3B7378-CDF9-4337-98A6-910B4F24ACC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="106">
   <si>
     <t>载弹</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,6 +326,132 @@
   </si>
   <si>
     <t>四连发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪械名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白扩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝扩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫扩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆头伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP5A5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹速
+m/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹寿命
+s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹匣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞄具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AKM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.62x39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姿态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散布倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趴下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞄准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%-100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通枪械伤害倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狙击枪伤害倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -375,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -395,11 +522,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,9 +819,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R22" sqref="R22"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1295,23 +1431,23 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8" t="s">
+      <c r="E19" s="8"/>
+      <c r="F19" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="8"/>
+      <c r="G19" s="9"/>
       <c r="J19" s="3" t="s">
         <v>63</v>
       </c>
@@ -1332,9 +1468,9 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="3" t="s">
         <v>52</v>
       </c>
@@ -1381,12 +1517,12 @@
         <f>B21/2</f>
         <v>6.25</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
       <c r="I21" s="3" t="s">
         <v>62</v>
       </c>
@@ -1869,4 +2005,348 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89779524-204D-407E-907D-88382DE78B98}">
+  <dimension ref="A1:Q12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.6640625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="7">
+        <v>21</v>
+      </c>
+      <c r="D3" s="7">
+        <v>24</v>
+      </c>
+      <c r="E3" s="7">
+        <v>27</v>
+      </c>
+      <c r="F3" s="7">
+        <v>30</v>
+      </c>
+      <c r="G3" s="7">
+        <v>600</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="I3" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K3" s="7">
+        <v>100</v>
+      </c>
+      <c r="L3" s="7">
+        <v>2</v>
+      </c>
+      <c r="M3" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="N3" s="7">
+        <v>1</v>
+      </c>
+      <c r="O3" s="7">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="7">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7">
+        <v>27</v>
+      </c>
+      <c r="F4" s="7">
+        <v>30</v>
+      </c>
+      <c r="G4" s="7">
+        <v>400</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="K4" s="7">
+        <v>160</v>
+      </c>
+      <c r="L4" s="7">
+        <v>3</v>
+      </c>
+      <c r="M4" s="7">
+        <v>5</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="O4" s="7">
+        <v>1</v>
+      </c>
+      <c r="P4" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7">
+        <v>6</v>
+      </c>
+      <c r="F5" s="7">
+        <v>7</v>
+      </c>
+      <c r="G5" s="7">
+        <v>50</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>12</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="K5" s="7">
+        <v>200</v>
+      </c>
+      <c r="L5" s="7">
+        <v>8</v>
+      </c>
+      <c r="M5" s="7">
+        <v>10</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1</v>
+      </c>
+      <c r="P5" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\GunBattleRoyale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3B7378-CDF9-4337-98A6-910B4F24ACC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF781DDC-9C27-4EEB-94AA-7A1AD929F380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="160" windowWidth="19200" windowHeight="10080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="112">
   <si>
     <t>载弹</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -399,10 +399,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7.62x39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AWM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -452,6 +448,34 @@
   </si>
   <si>
     <t>移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹匣伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维克托</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCAR-H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹匣持续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>762x39</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -820,8 +844,8 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2009,10 +2033,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89779524-204D-407E-907D-88382DE78B98}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2020,7 +2044,7 @@
     <col min="1" max="16384" width="8.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>75</v>
       </c>
@@ -2060,8 +2084,23 @@
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="7" t="s">
@@ -2095,12 +2134,37 @@
       <c r="Q2" s="7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" s="10"/>
+      <c r="S2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>85</v>
       </c>
       <c r="C3" s="7">
@@ -2118,22 +2182,22 @@
       <c r="G3" s="7">
         <v>600</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="10">
         <v>0.25</v>
       </c>
       <c r="I3" s="7">
         <v>2.5</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="10">
         <v>1.1499999999999999</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="10">
         <v>100</v>
       </c>
       <c r="L3" s="7">
         <v>2</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="10">
         <v>2.5</v>
       </c>
       <c r="N3" s="7">
@@ -2148,188 +2212,534 @@
       <c r="Q3" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3" s="7">
+        <v>1500</v>
+      </c>
+      <c r="S3" s="7">
+        <f>C3*$I3</f>
+        <v>52.5</v>
+      </c>
+      <c r="T3" s="7">
+        <f t="shared" ref="T3:V3" si="0">D3*$I3</f>
+        <v>60</v>
+      </c>
+      <c r="U3" s="7">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
+      <c r="V3" s="7">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="W3" s="7">
+        <f>C3/$G3*60</f>
+        <v>2.1</v>
+      </c>
+      <c r="X3" s="7">
+        <f t="shared" ref="X3:Z3" si="1">D3/$G3*60</f>
+        <v>2.4</v>
+      </c>
+      <c r="Y3" s="7">
+        <f t="shared" si="1"/>
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="Z3" s="7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="7">
+        <v>26</v>
+      </c>
+      <c r="D4" s="7">
+        <v>30</v>
+      </c>
+      <c r="E4" s="7">
+        <v>34</v>
+      </c>
+      <c r="F4" s="7">
+        <v>38</v>
+      </c>
+      <c r="G4" s="7">
+        <v>750</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="7">
+        <v>2</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="O4" s="7">
+        <v>1</v>
+      </c>
+      <c r="P4" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>1</v>
+      </c>
+      <c r="R4" s="7">
+        <v>1500</v>
+      </c>
+      <c r="S4" s="7">
+        <f t="shared" ref="S4:S8" si="2">C4*$I4</f>
+        <v>52</v>
+      </c>
+      <c r="T4" s="7">
+        <f t="shared" ref="T4:T8" si="3">D4*$I4</f>
+        <v>60</v>
+      </c>
+      <c r="U4" s="7">
+        <f t="shared" ref="U4:U8" si="4">E4*$I4</f>
+        <v>68</v>
+      </c>
+      <c r="V4" s="7">
+        <f t="shared" ref="V4:V8" si="5">F4*$I4</f>
+        <v>76</v>
+      </c>
+      <c r="W4" s="7">
+        <f t="shared" ref="W4:W8" si="6">C4/$G4*60</f>
+        <v>2.08</v>
+      </c>
+      <c r="X4" s="7">
+        <f t="shared" ref="X4:X8" si="7">D4/$G4*60</f>
+        <v>2.4</v>
+      </c>
+      <c r="Y4" s="7">
+        <f t="shared" ref="Y4:Y8" si="8">E4/$G4*60</f>
+        <v>2.72</v>
+      </c>
+      <c r="Z4" s="7">
+        <f t="shared" ref="Z4:Z8" si="9">F4/$G4*60</f>
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="7">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7">
+        <v>24</v>
+      </c>
+      <c r="E5" s="7">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7">
+        <v>30</v>
+      </c>
+      <c r="G5" s="7">
+        <v>400</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3</v>
+      </c>
+      <c r="J5" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="K5" s="10">
+        <v>160</v>
+      </c>
+      <c r="L5" s="7">
+        <v>3</v>
+      </c>
+      <c r="M5" s="10">
+        <v>5</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1</v>
+      </c>
+      <c r="O5" s="7">
+        <v>1</v>
+      </c>
+      <c r="P5" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>1</v>
+      </c>
+      <c r="R5" s="7">
+        <v>1200</v>
+      </c>
+      <c r="S5" s="7">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="T5" s="7">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="U5" s="7">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="V5" s="7">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="W5" s="7">
+        <f t="shared" si="6"/>
+        <v>3.15</v>
+      </c>
+      <c r="X5" s="7">
+        <f t="shared" si="7"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="Y5" s="7">
+        <f t="shared" si="8"/>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="Z5" s="7">
+        <f t="shared" si="9"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="7">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7">
+        <v>29</v>
+      </c>
+      <c r="E6" s="7">
+        <v>33</v>
+      </c>
+      <c r="F6" s="7">
+        <v>37</v>
+      </c>
+      <c r="G6" s="7">
+        <v>480</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="7">
+        <v>1</v>
+      </c>
+      <c r="O6" s="7">
+        <v>1</v>
+      </c>
+      <c r="P6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>1</v>
+      </c>
+      <c r="R6" s="7">
+        <v>1200</v>
+      </c>
+      <c r="S6" s="7">
+        <f t="shared" si="2"/>
+        <v>62.5</v>
+      </c>
+      <c r="T6" s="7">
+        <f t="shared" si="3"/>
+        <v>72.5</v>
+      </c>
+      <c r="U6" s="7">
+        <f t="shared" si="4"/>
+        <v>82.5</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="5"/>
+        <v>92.5</v>
+      </c>
+      <c r="W6" s="7">
+        <f t="shared" si="6"/>
+        <v>3.125</v>
+      </c>
+      <c r="X6" s="7">
+        <f t="shared" si="7"/>
+        <v>3.625</v>
+      </c>
+      <c r="Y6" s="7">
+        <f t="shared" si="8"/>
+        <v>4.125</v>
+      </c>
+      <c r="Z6" s="7">
+        <f t="shared" si="9"/>
+        <v>4.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="7">
-        <v>21</v>
-      </c>
-      <c r="D4" s="7">
-        <v>24</v>
-      </c>
-      <c r="E4" s="7">
-        <v>27</v>
-      </c>
-      <c r="F4" s="7">
-        <v>30</v>
-      </c>
-      <c r="G4" s="7">
-        <v>400</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="I4" s="7">
-        <v>3</v>
-      </c>
-      <c r="J4" s="7">
-        <v>1.25</v>
-      </c>
-      <c r="K4" s="7">
-        <v>160</v>
-      </c>
-      <c r="L4" s="7">
-        <v>3</v>
-      </c>
-      <c r="M4" s="7">
+      <c r="B7" s="10">
+        <v>338</v>
+      </c>
+      <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
         <v>5</v>
       </c>
-      <c r="N4" s="7">
-        <v>1</v>
-      </c>
-      <c r="O4" s="7">
-        <v>1</v>
-      </c>
-      <c r="P4" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="E7" s="7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7">
+        <v>7</v>
+      </c>
+      <c r="G7" s="7">
+        <v>75</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>12</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="K7" s="10">
+        <v>200</v>
+      </c>
+      <c r="M7" s="10">
+        <v>10</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>1</v>
+      </c>
+      <c r="R7" s="7">
+        <v>900</v>
+      </c>
+      <c r="S7" s="7">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="T7" s="7">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="U7" s="7">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="V7" s="7">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="W7" s="7">
+        <f t="shared" si="6"/>
+        <v>3.2</v>
+      </c>
+      <c r="X7" s="7">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Y7" s="7">
+        <f t="shared" si="8"/>
+        <v>4.8</v>
+      </c>
+      <c r="Z7" s="7">
+        <f t="shared" si="9"/>
+        <v>5.6000000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="7">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7">
+        <v>8</v>
+      </c>
+      <c r="E8" s="7">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7">
+        <v>100</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="7">
+        <v>9</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>1</v>
+      </c>
+      <c r="R8" s="7">
+        <v>900</v>
+      </c>
+      <c r="S8" s="7">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="T8" s="7">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="U8" s="7">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="V8" s="7">
+        <f t="shared" si="5"/>
+        <v>108</v>
+      </c>
+      <c r="W8" s="7">
+        <f t="shared" si="6"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="X8" s="7">
+        <f t="shared" si="7"/>
+        <v>4.8</v>
+      </c>
+      <c r="Y8" s="7">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="Z8" s="7">
+        <f t="shared" si="9"/>
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="7">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="C5" s="7">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7">
-        <v>5</v>
-      </c>
-      <c r="E5" s="7">
-        <v>6</v>
-      </c>
-      <c r="F5" s="7">
-        <v>7</v>
-      </c>
-      <c r="G5" s="7">
-        <v>50</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="B10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="7">
         <v>0.5</v>
       </c>
-      <c r="I5" s="7">
-        <v>12</v>
-      </c>
-      <c r="J5" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="K5" s="7">
-        <v>200</v>
-      </c>
-      <c r="L5" s="7">
-        <v>8</v>
-      </c>
-      <c r="M5" s="7">
-        <v>10</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1</v>
-      </c>
-      <c r="P5" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="7">
+      <c r="B13" s="10"/>
+      <c r="C13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
         <v>0.5</v>
       </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="B15" s="10"/>
+      <c r="C15" s="7">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="D15" s="7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="32">
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:Q1"/>
@@ -2339,11 +2749,7 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="M5:M6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\GunBattleRoyale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF781DDC-9C27-4EEB-94AA-7A1AD929F380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E28FB7-1CB9-415A-B808-DFD3F3B909A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="160" windowWidth="19200" windowHeight="10080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2036,7 +2036,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2213,6 +2213,7 @@
         <v>1</v>
       </c>
       <c r="R3" s="7">
+        <f>G3*I3</f>
         <v>1500</v>
       </c>
       <c r="S3" s="7">
@@ -2291,38 +2292,39 @@
         <v>1</v>
       </c>
       <c r="R4" s="7">
+        <f t="shared" ref="R4:R8" si="2">G4*I4</f>
         <v>1500</v>
       </c>
       <c r="S4" s="7">
-        <f t="shared" ref="S4:S8" si="2">C4*$I4</f>
+        <f t="shared" ref="S4:S8" si="3">C4*$I4</f>
         <v>52</v>
       </c>
       <c r="T4" s="7">
-        <f t="shared" ref="T4:T8" si="3">D4*$I4</f>
+        <f t="shared" ref="T4:T8" si="4">D4*$I4</f>
         <v>60</v>
       </c>
       <c r="U4" s="7">
-        <f t="shared" ref="U4:U8" si="4">E4*$I4</f>
+        <f t="shared" ref="U4:U8" si="5">E4*$I4</f>
         <v>68</v>
       </c>
       <c r="V4" s="7">
-        <f t="shared" ref="V4:V8" si="5">F4*$I4</f>
+        <f t="shared" ref="V4:V8" si="6">F4*$I4</f>
         <v>76</v>
       </c>
       <c r="W4" s="7">
-        <f t="shared" ref="W4:W8" si="6">C4/$G4*60</f>
+        <f t="shared" ref="W4:W8" si="7">C4/$G4*60</f>
         <v>2.08</v>
       </c>
       <c r="X4" s="7">
-        <f t="shared" ref="X4:X8" si="7">D4/$G4*60</f>
+        <f t="shared" ref="X4:X8" si="8">D4/$G4*60</f>
         <v>2.4</v>
       </c>
       <c r="Y4" s="7">
-        <f t="shared" ref="Y4:Y8" si="8">E4/$G4*60</f>
+        <f t="shared" ref="Y4:Y8" si="9">E4/$G4*60</f>
         <v>2.72</v>
       </c>
       <c r="Z4" s="7">
-        <f t="shared" ref="Z4:Z8" si="9">F4/$G4*60</f>
+        <f t="shared" ref="Z4:Z8" si="10">F4/$G4*60</f>
         <v>3.04</v>
       </c>
     </row>
@@ -2379,38 +2381,39 @@
         <v>1</v>
       </c>
       <c r="R5" s="7">
+        <f t="shared" si="2"/>
         <v>1200</v>
       </c>
       <c r="S5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="T5" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="U5" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="V5" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="W5" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.15</v>
       </c>
       <c r="X5" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.5999999999999996</v>
       </c>
       <c r="Y5" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.0500000000000007</v>
       </c>
       <c r="Z5" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.5</v>
       </c>
     </row>
@@ -2457,38 +2460,39 @@
         <v>1</v>
       </c>
       <c r="R6" s="7">
+        <f t="shared" si="2"/>
         <v>1200</v>
       </c>
       <c r="S6" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>62.5</v>
       </c>
       <c r="T6" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>72.5</v>
       </c>
       <c r="U6" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>82.5</v>
       </c>
       <c r="V6" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>92.5</v>
       </c>
       <c r="W6" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.125</v>
       </c>
       <c r="X6" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.625</v>
       </c>
       <c r="Y6" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.125</v>
       </c>
       <c r="Z6" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.625</v>
       </c>
     </row>
@@ -2512,7 +2516,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="7">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H7" s="10">
         <v>0.5</v>
@@ -2536,39 +2540,40 @@
         <v>1</v>
       </c>
       <c r="R7" s="7">
-        <v>900</v>
+        <f t="shared" si="2"/>
+        <v>600</v>
       </c>
       <c r="S7" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="T7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="U7" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="V7" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>84</v>
       </c>
       <c r="W7" s="7">
-        <f t="shared" si="6"/>
-        <v>3.2</v>
+        <f t="shared" si="7"/>
+        <v>4.8</v>
       </c>
       <c r="X7" s="7">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="Y7" s="7">
-        <f t="shared" si="8"/>
-        <v>4.8</v>
+        <f t="shared" si="9"/>
+        <v>7.1999999999999993</v>
       </c>
       <c r="Z7" s="7">
-        <f t="shared" si="9"/>
-        <v>5.6000000000000005</v>
+        <f t="shared" si="10"/>
+        <v>8.4</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
@@ -2589,7 +2594,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="7">
@@ -2605,39 +2610,40 @@
         <v>1</v>
       </c>
       <c r="R8" s="7">
-        <v>900</v>
+        <f t="shared" si="2"/>
+        <v>603</v>
       </c>
       <c r="S8" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="T8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="U8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="V8" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>108</v>
       </c>
       <c r="W8" s="7">
-        <f t="shared" si="6"/>
-        <v>3.5999999999999996</v>
+        <f t="shared" si="7"/>
+        <v>5.3731343283582085</v>
       </c>
       <c r="X8" s="7">
-        <f t="shared" si="7"/>
-        <v>4.8</v>
+        <f t="shared" si="8"/>
+        <v>7.1641791044776122</v>
       </c>
       <c r="Y8" s="7">
-        <f t="shared" si="8"/>
-        <v>6</v>
+        <f t="shared" si="9"/>
+        <v>8.9552238805970141</v>
       </c>
       <c r="Z8" s="7">
-        <f t="shared" si="9"/>
-        <v>7.1999999999999993</v>
+        <f t="shared" si="10"/>
+        <v>10.746268656716417</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
@@ -2718,38 +2724,38 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="M5:M6"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="M5:M6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\GunBattleRoyale\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\GunBattleRoyale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E28FB7-1CB9-415A-B808-DFD3F3B909A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110963CC-E493-4D9C-816F-2277371FC2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="160" windowWidth="19200" windowHeight="10080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="120">
   <si>
     <t>载弹</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -476,6 +476,38 @@
   </si>
   <si>
     <t>762x39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M249</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>556x45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50（空投100发备弹）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.50 BMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4（空投8发备弹）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自带二倍镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自带5-10倍镜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -560,6 +592,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2033,10 +2068,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89779524-204D-407E-907D-88382DE78B98}">
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2292,39 +2327,39 @@
         <v>1</v>
       </c>
       <c r="R4" s="7">
-        <f t="shared" ref="R4:R8" si="2">G4*I4</f>
+        <f t="shared" ref="R4:R10" si="2">G4*I4</f>
         <v>1500</v>
       </c>
       <c r="S4" s="7">
-        <f t="shared" ref="S4:S8" si="3">C4*$I4</f>
+        <f t="shared" ref="S4:S9" si="3">C4*$I4</f>
         <v>52</v>
       </c>
       <c r="T4" s="7">
-        <f t="shared" ref="T4:T8" si="4">D4*$I4</f>
+        <f t="shared" ref="T4:T9" si="4">D4*$I4</f>
         <v>60</v>
       </c>
       <c r="U4" s="7">
-        <f t="shared" ref="U4:U8" si="5">E4*$I4</f>
+        <f t="shared" ref="U4:U9" si="5">E4*$I4</f>
         <v>68</v>
       </c>
       <c r="V4" s="7">
-        <f t="shared" ref="V4:V8" si="6">F4*$I4</f>
+        <f t="shared" ref="V4:V9" si="6">F4*$I4</f>
         <v>76</v>
       </c>
       <c r="W4" s="7">
-        <f t="shared" ref="W4:W8" si="7">C4/$G4*60</f>
+        <f t="shared" ref="W4:W9" si="7">C4/$G4*60</f>
         <v>2.08</v>
       </c>
       <c r="X4" s="7">
-        <f t="shared" ref="X4:X8" si="8">D4/$G4*60</f>
+        <f t="shared" ref="X4:X9" si="8">D4/$G4*60</f>
         <v>2.4</v>
       </c>
       <c r="Y4" s="7">
-        <f t="shared" ref="Y4:Y8" si="9">E4/$G4*60</f>
+        <f t="shared" ref="Y4:Y9" si="9">E4/$G4*60</f>
         <v>2.72</v>
       </c>
       <c r="Z4" s="7">
-        <f t="shared" ref="Z4:Z8" si="10">F4/$G4*60</f>
+        <f t="shared" ref="Z4:Z9" si="10">F4/$G4*60</f>
         <v>3.04</v>
       </c>
     </row>
@@ -2498,235 +2533,353 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="10">
-        <v>338</v>
-      </c>
-      <c r="C7" s="7">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7">
-        <v>5</v>
-      </c>
-      <c r="E7" s="7">
-        <v>6</v>
-      </c>
-      <c r="F7" s="7">
-        <v>7</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="7">
-        <v>50</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0.5</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="H7" s="10"/>
       <c r="I7" s="7">
-        <v>12</v>
-      </c>
-      <c r="J7" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="K7" s="10">
-        <v>200</v>
-      </c>
-      <c r="M7" s="10">
-        <v>10</v>
-      </c>
-      <c r="N7" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>1</v>
-      </c>
+        <v>2.4</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
       <c r="R7" s="7">
         <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="S7" s="10">
+        <v>120</v>
+      </c>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10">
+        <v>6</v>
+      </c>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="10">
+        <v>338</v>
+      </c>
+      <c r="C8" s="7">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7">
+        <v>6</v>
+      </c>
+      <c r="F8" s="7">
+        <v>7</v>
+      </c>
+      <c r="G8" s="7">
+        <v>50</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>12</v>
+      </c>
+      <c r="J8" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="K8" s="10">
+        <v>200</v>
+      </c>
+      <c r="M8" s="10">
+        <v>10</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>1</v>
+      </c>
+      <c r="R8" s="7">
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S8" s="7">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T8" s="7">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U8" s="7">
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V8" s="7">
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
-      <c r="W7" s="7">
+      <c r="W8" s="7">
         <f t="shared" si="7"/>
         <v>4.8</v>
       </c>
-      <c r="X7" s="7">
+      <c r="X8" s="7">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="Y8" s="7">
         <f t="shared" si="9"/>
         <v>7.1999999999999993</v>
       </c>
-      <c r="Z7" s="7">
+      <c r="Z8" s="7">
         <f t="shared" si="10"/>
         <v>8.4</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="7">
+      <c r="B9" s="10"/>
+      <c r="C9" s="7">
         <v>6</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="7">
         <v>8</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="7">
         <v>10</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="7">
         <v>12</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G9" s="7">
         <v>67</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="7">
+      <c r="H9" s="10"/>
+      <c r="I9" s="7">
         <v>9</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>1</v>
-      </c>
-      <c r="R8" s="7">
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>1</v>
+      </c>
+      <c r="R9" s="7">
         <f t="shared" si="2"/>
         <v>603</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S9" s="7">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T9" s="7">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U9" s="7">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="V8" s="7">
+      <c r="V9" s="7">
         <f t="shared" si="6"/>
         <v>108</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W9" s="7">
         <f t="shared" si="7"/>
         <v>5.3731343283582085</v>
       </c>
-      <c r="X8" s="7">
+      <c r="X9" s="7">
         <f t="shared" si="8"/>
         <v>7.1641791044776122</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Y9" s="7">
         <f t="shared" si="9"/>
         <v>8.9552238805970141</v>
       </c>
-      <c r="Z8" s="7">
+      <c r="Z9" s="7">
         <f t="shared" si="10"/>
         <v>10.746268656716417</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="7">
+        <v>30</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="7">
+        <v>20</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="7">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B13" s="7">
         <v>0.5</v>
       </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
         <v>0.2</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E13" s="7">
         <v>0.1</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F13" s="7">
         <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="7">
+      <c r="B17" s="10"/>
+      <c r="C17" s="7">
         <v>0.5</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D17" s="7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A13:B13"/>
+  <mergeCells count="38">
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="A1:A2"/>
@@ -2735,27 +2888,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\GunBattleRoyale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110963CC-E493-4D9C-816F-2277371FC2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7806E433-98F8-45F2-920D-DF14246C2C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,10 +487,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50（空投100发备弹）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M95</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -508,6 +504,10 @@
   </si>
   <si>
     <t>自带5-10倍镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60（空投120发备弹）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,6 +581,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -592,9 +595,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1490,23 +1490,23 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9" t="s">
+      <c r="E19" s="9"/>
+      <c r="F19" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="10"/>
       <c r="J19" s="3" t="s">
         <v>63</v>
       </c>
@@ -1527,9 +1527,9 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="3" t="s">
         <v>52</v>
       </c>
@@ -1576,12 +1576,12 @@
         <f>B21/2</f>
         <v>6.25</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
       <c r="I21" s="3" t="s">
         <v>62</v>
       </c>
@@ -2070,8 +2070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89779524-204D-407E-907D-88382DE78B98}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7:Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2080,64 +2080,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10" t="s">
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10" t="s">
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="7" t="s">
         <v>78</v>
       </c>
@@ -2150,13 +2150,13 @@
       <c r="F2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
       <c r="N2" s="7" t="s">
         <v>88</v>
       </c>
@@ -2169,7 +2169,7 @@
       <c r="Q2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="R2" s="10"/>
+      <c r="R2" s="11"/>
       <c r="S2" s="7" t="s">
         <v>78</v>
       </c>
@@ -2199,7 +2199,7 @@
       <c r="A3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C3" s="7">
@@ -2217,22 +2217,22 @@
       <c r="G3" s="7">
         <v>600</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="11">
         <v>0.25</v>
       </c>
       <c r="I3" s="7">
         <v>2.5</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="11">
         <v>1.1499999999999999</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="11">
         <v>100</v>
       </c>
       <c r="L3" s="7">
         <v>2</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="11">
         <v>2.5</v>
       </c>
       <c r="N3" s="7">
@@ -2288,7 +2288,7 @@
       <c r="A4" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="7">
         <v>26</v>
       </c>
@@ -2304,16 +2304,16 @@
       <c r="G4" s="7">
         <v>750</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="7">
         <v>2</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
       <c r="L4" s="7">
         <v>1.6</v>
       </c>
-      <c r="M4" s="10"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="7">
         <v>1</v>
       </c>
@@ -2367,7 +2367,7 @@
       <c r="A5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>111</v>
       </c>
       <c r="C5" s="7">
@@ -2385,22 +2385,22 @@
       <c r="G5" s="7">
         <v>400</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="11">
         <v>0.4</v>
       </c>
       <c r="I5" s="7">
         <v>3</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="11">
         <v>1.25</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="11">
         <v>160</v>
       </c>
       <c r="L5" s="7">
         <v>3</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="11">
         <v>5</v>
       </c>
       <c r="N5" s="7">
@@ -2456,7 +2456,7 @@
       <c r="A6" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="7">
         <v>25</v>
       </c>
@@ -2472,16 +2472,16 @@
       <c r="G6" s="7">
         <v>480</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="7">
         <v>2.5</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
       <c r="L6" s="7">
         <v>2.5</v>
       </c>
-      <c r="M6" s="10"/>
+      <c r="M6" s="11"/>
       <c r="N6" s="7">
         <v>1</v>
       </c>
@@ -2538,55 +2538,55 @@
       <c r="B7" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="7">
-        <v>500</v>
-      </c>
-      <c r="H7" s="10"/>
+        <v>560</v>
+      </c>
+      <c r="H7" s="11"/>
       <c r="I7" s="7">
         <v>2.4</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
       <c r="L7" s="7">
         <v>1.2</v>
       </c>
       <c r="M7" s="7">
         <v>2.5</v>
       </c>
-      <c r="N7" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
+      <c r="N7" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
       <c r="R7" s="7">
         <f t="shared" si="2"/>
-        <v>1200</v>
-      </c>
-      <c r="S7" s="10">
-        <v>120</v>
-      </c>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10">
+        <v>1344</v>
+      </c>
+      <c r="S7" s="11">
+        <v>144</v>
+      </c>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11">
         <v>6</v>
       </c>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="11">
         <v>338</v>
       </c>
       <c r="C8" s="7">
@@ -2604,19 +2604,19 @@
       <c r="G8" s="7">
         <v>50</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="11">
         <v>0.5</v>
       </c>
       <c r="I8" s="7">
         <v>12</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="11">
         <v>1.5</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="11">
         <v>200</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="11">
         <v>10</v>
       </c>
       <c r="N8" s="7">
@@ -2666,7 +2666,7 @@
       <c r="A9" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="7">
         <v>6</v>
       </c>
@@ -2682,13 +2682,13 @@
       <c r="G9" s="7">
         <v>67</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="7">
         <v>9</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="M9" s="11"/>
       <c r="N9" s="7">
         <v>1</v>
       </c>
@@ -2734,43 +2734,43 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="7">
         <v>30</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="7">
         <v>20</v>
       </c>
       <c r="J10" s="7">
         <v>1.75</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
+      <c r="K10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
       <c r="R10" s="7">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -2813,10 +2813,10 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="7" t="s">
         <v>100</v>
       </c>
@@ -2825,10 +2825,10 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="7">
         <v>1</v>
       </c>
@@ -2837,10 +2837,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="10"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="7">
         <v>0.5</v>
       </c>
@@ -2850,33 +2850,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A17:B17"/>
@@ -2888,6 +2861,33 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\GunBattleRoyale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7806E433-98F8-45F2-920D-DF14246C2C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1573AA-8F7A-4EDF-8404-6D82DBAAB4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="124">
   <si>
     <t>载弹</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,6 +508,22 @@
   </si>
   <si>
     <t>60（空投120发备弹）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格洛克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20（复活60发备弹）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45acp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2068,10 +2084,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89779524-204D-407E-907D-88382DE78B98}">
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7:Z7"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2327,161 +2343,119 @@
         <v>1</v>
       </c>
       <c r="R4" s="7">
-        <f t="shared" ref="R4:R10" si="2">G4*I4</f>
+        <f t="shared" ref="R4:R11" si="2">G4*I4</f>
         <v>1500</v>
       </c>
       <c r="S4" s="7">
-        <f t="shared" ref="S4:S9" si="3">C4*$I4</f>
+        <f t="shared" ref="S4:S10" si="3">C4*$I4</f>
         <v>52</v>
       </c>
       <c r="T4" s="7">
-        <f t="shared" ref="T4:T9" si="4">D4*$I4</f>
+        <f t="shared" ref="T4:T10" si="4">D4*$I4</f>
         <v>60</v>
       </c>
       <c r="U4" s="7">
-        <f t="shared" ref="U4:U9" si="5">E4*$I4</f>
+        <f t="shared" ref="U4:U10" si="5">E4*$I4</f>
         <v>68</v>
       </c>
       <c r="V4" s="7">
-        <f t="shared" ref="V4:V9" si="6">F4*$I4</f>
+        <f t="shared" ref="V4:V10" si="6">F4*$I4</f>
         <v>76</v>
       </c>
       <c r="W4" s="7">
-        <f t="shared" ref="W4:W9" si="7">C4/$G4*60</f>
+        <f t="shared" ref="W4:W10" si="7">C4/$G4*60</f>
         <v>2.08</v>
       </c>
       <c r="X4" s="7">
-        <f t="shared" ref="X4:X9" si="8">D4/$G4*60</f>
+        <f t="shared" ref="X4:X10" si="8">D4/$G4*60</f>
         <v>2.4</v>
       </c>
       <c r="Y4" s="7">
-        <f t="shared" ref="Y4:Y9" si="9">E4/$G4*60</f>
+        <f t="shared" ref="Y4:Y10" si="9">E4/$G4*60</f>
         <v>2.72</v>
       </c>
       <c r="Z4" s="7">
-        <f t="shared" ref="Z4:Z9" si="10">F4/$G4*60</f>
+        <f t="shared" ref="Z4:Z10" si="10">F4/$G4*60</f>
         <v>3.04</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="7">
-        <v>21</v>
-      </c>
-      <c r="D5" s="7">
-        <v>24</v>
-      </c>
-      <c r="E5" s="7">
-        <v>27</v>
-      </c>
-      <c r="F5" s="7">
-        <v>30</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="7">
-        <v>400</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0.4</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="H5" s="11"/>
       <c r="I5" s="7">
-        <v>3</v>
-      </c>
-      <c r="J5" s="11">
-        <v>1.25</v>
-      </c>
-      <c r="K5" s="11">
-        <v>160</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="7">
-        <v>3</v>
-      </c>
-      <c r="M5" s="11">
-        <v>5</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1</v>
-      </c>
-      <c r="O5" s="7">
-        <v>1</v>
-      </c>
-      <c r="P5" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>1</v>
-      </c>
+        <v>2.6</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="7">
         <f t="shared" si="2"/>
-        <v>1200</v>
-      </c>
-      <c r="S5" s="7">
-        <f t="shared" si="3"/>
-        <v>63</v>
-      </c>
-      <c r="T5" s="7">
-        <f t="shared" si="4"/>
-        <v>72</v>
-      </c>
-      <c r="U5" s="7">
-        <f t="shared" si="5"/>
-        <v>81</v>
-      </c>
-      <c r="V5" s="7">
-        <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="W5" s="7">
-        <f t="shared" si="7"/>
-        <v>3.15</v>
-      </c>
-      <c r="X5" s="7">
-        <f t="shared" si="8"/>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="Y5" s="7">
-        <f t="shared" si="9"/>
-        <v>4.0500000000000007</v>
-      </c>
-      <c r="Z5" s="7">
-        <f t="shared" si="10"/>
-        <v>4.5</v>
+        <v>900</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="11"/>
+        <v>91</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="C6" s="7">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D6" s="7">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E6" s="7">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7">
-        <v>480</v>
-      </c>
-      <c r="H6" s="11"/>
+        <v>400</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.4</v>
+      </c>
       <c r="I6" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="K6" s="11">
+        <v>160</v>
+      </c>
       <c r="L6" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="M6" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="M6" s="11">
+        <v>5</v>
+      </c>
       <c r="N6" s="7">
         <v>1</v>
       </c>
@@ -2500,359 +2474,463 @@
       </c>
       <c r="S6" s="7">
         <f t="shared" si="3"/>
-        <v>62.5</v>
+        <v>63</v>
       </c>
       <c r="T6" s="7">
         <f t="shared" si="4"/>
-        <v>72.5</v>
+        <v>72</v>
       </c>
       <c r="U6" s="7">
         <f t="shared" si="5"/>
-        <v>82.5</v>
+        <v>81</v>
       </c>
       <c r="V6" s="7">
         <f t="shared" si="6"/>
-        <v>92.5</v>
+        <v>90</v>
       </c>
       <c r="W6" s="7">
         <f t="shared" si="7"/>
-        <v>3.125</v>
+        <v>3.15</v>
       </c>
       <c r="X6" s="7">
         <f t="shared" si="8"/>
-        <v>3.625</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="Y6" s="7">
         <f t="shared" si="9"/>
-        <v>4.125</v>
+        <v>4.0500000000000007</v>
       </c>
       <c r="Z6" s="7">
         <f t="shared" si="10"/>
-        <v>4.625</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+        <v>108</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="7">
+        <v>25</v>
+      </c>
+      <c r="D7" s="7">
+        <v>29</v>
+      </c>
+      <c r="E7" s="7">
+        <v>33</v>
+      </c>
+      <c r="F7" s="7">
+        <v>37</v>
+      </c>
       <c r="G7" s="7">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="7">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="M7" s="7">
         <v>2.5</v>
       </c>
-      <c r="N7" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="7">
+        <v>1</v>
+      </c>
+      <c r="P7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>1</v>
+      </c>
       <c r="R7" s="7">
         <f t="shared" si="2"/>
-        <v>1344</v>
-      </c>
-      <c r="S7" s="11">
-        <v>144</v>
-      </c>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11">
-        <v>6</v>
-      </c>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
+        <v>1200</v>
+      </c>
+      <c r="S7" s="7">
+        <f t="shared" si="3"/>
+        <v>62.5</v>
+      </c>
+      <c r="T7" s="7">
+        <f t="shared" si="4"/>
+        <v>72.5</v>
+      </c>
+      <c r="U7" s="7">
+        <f t="shared" si="5"/>
+        <v>82.5</v>
+      </c>
+      <c r="V7" s="7">
+        <f t="shared" si="6"/>
+        <v>92.5</v>
+      </c>
+      <c r="W7" s="7">
+        <f t="shared" si="7"/>
+        <v>3.125</v>
+      </c>
+      <c r="X7" s="7">
+        <f t="shared" si="8"/>
+        <v>3.625</v>
+      </c>
+      <c r="Y7" s="7">
+        <f t="shared" si="9"/>
+        <v>4.125</v>
+      </c>
+      <c r="Z7" s="7">
+        <f t="shared" si="10"/>
+        <v>4.625</v>
+      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="11">
-        <v>338</v>
-      </c>
-      <c r="C8" s="7">
-        <v>4</v>
-      </c>
-      <c r="D8" s="7">
-        <v>5</v>
-      </c>
-      <c r="E8" s="7">
-        <v>6</v>
-      </c>
-      <c r="F8" s="7">
-        <v>7</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="7">
-        <v>50</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0.5</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="H8" s="11"/>
       <c r="I8" s="7">
-        <v>12</v>
-      </c>
-      <c r="J8" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="K8" s="11">
-        <v>200</v>
-      </c>
-      <c r="M8" s="11">
-        <v>10</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>1</v>
-      </c>
+        <v>2.4</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="M8" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
       <c r="R8" s="7">
         <f t="shared" si="2"/>
+        <v>1344</v>
+      </c>
+      <c r="S8" s="11">
+        <v>144</v>
+      </c>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11">
+        <v>6</v>
+      </c>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="11">
+        <v>338</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7">
+        <v>5</v>
+      </c>
+      <c r="E9" s="7">
+        <v>6</v>
+      </c>
+      <c r="F9" s="7">
+        <v>7</v>
+      </c>
+      <c r="G9" s="7">
+        <v>50</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="7">
+        <v>12</v>
+      </c>
+      <c r="J9" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="K9" s="11">
+        <v>200</v>
+      </c>
+      <c r="M9" s="11">
+        <v>10</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>1</v>
+      </c>
+      <c r="R9" s="7">
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S9" s="7">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T9" s="7">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U9" s="7">
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="V8" s="7">
+      <c r="V9" s="7">
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W9" s="7">
         <f t="shared" si="7"/>
         <v>4.8</v>
       </c>
-      <c r="X8" s="7">
+      <c r="X9" s="7">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Y9" s="7">
         <f t="shared" si="9"/>
         <v>7.1999999999999993</v>
       </c>
-      <c r="Z8" s="7">
+      <c r="Z9" s="7">
         <f t="shared" si="10"/>
         <v>8.4</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="7">
+      <c r="B10" s="11"/>
+      <c r="C10" s="7">
         <v>6</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D10" s="7">
         <v>8</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E10" s="7">
         <v>10</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F10" s="7">
         <v>12</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G10" s="7">
         <v>67</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="7">
+      <c r="H10" s="11"/>
+      <c r="I10" s="7">
         <v>9</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>1</v>
-      </c>
-      <c r="R9" s="7">
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>1</v>
+      </c>
+      <c r="R10" s="7">
         <f t="shared" si="2"/>
         <v>603</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S10" s="7">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T10" s="7">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U10" s="7">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="V9" s="7">
+      <c r="V10" s="7">
         <f t="shared" si="6"/>
         <v>108</v>
       </c>
-      <c r="W9" s="7">
+      <c r="W10" s="7">
         <f t="shared" si="7"/>
         <v>5.3731343283582085</v>
       </c>
-      <c r="X9" s="7">
+      <c r="X10" s="7">
         <f t="shared" si="8"/>
         <v>7.1641791044776122</v>
       </c>
-      <c r="Y9" s="7">
+      <c r="Y10" s="7">
         <f t="shared" si="9"/>
         <v>8.9552238805970141</v>
       </c>
-      <c r="Z9" s="7">
+      <c r="Z10" s="7">
         <f t="shared" si="10"/>
         <v>10.746268656716417</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="7">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="7">
         <v>30</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="7">
+      <c r="H11" s="11"/>
+      <c r="I11" s="7">
         <v>20</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J11" s="7">
         <v>1.75</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11" t="s">
+      <c r="K11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="7">
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="7">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B14" s="7">
         <v>0.5</v>
       </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
         <v>0.2</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E14" s="7">
         <v>0.1</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F14" s="7">
         <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B16" s="11"/>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.5</v>
+      <c r="C16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
         <v>0.5</v>
       </c>
-      <c r="D17" s="7">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="40">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="A1:A2"/>
@@ -2861,33 +2939,10 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:Q1"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
